--- a/data/case1/2/Plm1_13.xlsx
+++ b/data/case1/2/Plm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.086796485556021707</v>
+        <v>-0.073001804238757018</v>
       </c>
       <c r="B1" s="0">
-        <v>0.086720833377526674</v>
+        <v>0.072900356218823958</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.040614301393420149</v>
+        <v>-0.010914093097850852</v>
       </c>
       <c r="B2" s="0">
-        <v>0.04041594741944543</v>
+        <v>0.010574305989230481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14171039545829345</v>
+        <v>0.092357461862057733</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.14230800110540187</v>
+        <v>-0.09262059896749264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14167934281650929</v>
+        <v>-0.19137326512317188</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14108909549334214</v>
+        <v>0.19044991264627953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13508909638547006</v>
+        <v>-0.18444991295203028</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13392043242444274</v>
+        <v>0.18259298583518202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.053044393748082452</v>
+        <v>-0.073077217917661752</v>
       </c>
       <c r="B6" s="0">
-        <v>0.053010593363958414</v>
+        <v>0.073007617382399914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.033010594421098105</v>
+        <v>-0.053007617760810533</v>
       </c>
       <c r="B7" s="0">
-        <v>0.032960032359685698</v>
+        <v>0.052873946476738709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.012960033420880812</v>
+        <v>-0.068739831621981828</v>
       </c>
       <c r="B8" s="0">
-        <v>0.012929705737165342</v>
+        <v>0.068354148454440988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0069297066623885684</v>
+        <v>-0.062354148780749519</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0069020732516520411</v>
+        <v>0.062025729205593905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.00090207417826349001</v>
+        <v>-0.056025729537026336</v>
       </c>
       <c r="B10" s="0">
-        <v>0.00090265584288573564</v>
+        <v>0.055978332465009828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0035973432452891529</v>
+        <v>-0.051478332790683368</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0036077444534043934</v>
+        <v>0.051398772216998623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.015390087814171061</v>
+        <v>-0.04539877255051028</v>
       </c>
       <c r="B12" s="0">
-        <v>0.015359185027923328</v>
+        <v>0.04515282915074037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0093591859586297232</v>
+        <v>-0.039152829489757401</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0093507197519153706</v>
+        <v>0.03908581408959666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0026492792572039292</v>
+        <v>-0.027085814456018653</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0026653850155486936</v>
+        <v>0.027053371949834037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0086653840842076946</v>
+        <v>-0.021053372291694572</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0086914512396001342</v>
+        <v>0.02102783023169863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.014691450309345822</v>
+        <v>-0.01502783057471957</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.014757593609258102</v>
+        <v>0.015004530267366256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.020757592682916659</v>
+        <v>-0.0090045306118824442</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.020808804963213134</v>
+        <v>0.0089999996422251982</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036106532910473277</v>
+        <v>-0.051986263440451097</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036095842167018333</v>
+        <v>0.051960568598431678</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027095843084116833</v>
+        <v>-0.042960568914011343</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027012977596843957</v>
+        <v>0.042786563341294048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012978521719347</v>
+        <v>-0.018013837703884761</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004170767939698</v>
+        <v>0.018004301153256463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004171693913321</v>
+        <v>-0.0090043014738192539</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999990733655721</v>
+        <v>0.008999999679126347</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.17312634379824132</v>
+        <v>-0.093931768167101026</v>
       </c>
       <c r="B22" s="0">
-        <v>0.17227528902517086</v>
+        <v>0.093623835335064243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084624899328822778</v>
+        <v>-0.084623835653657054</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124699918215917</v>
+        <v>0.084124737255623749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124701193622549</v>
+        <v>-0.042124737721093375</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998717731302</v>
+        <v>0.04199999953206035</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.074876039593242183</v>
+        <v>-0.10351576823481423</v>
       </c>
       <c r="B25" s="0">
-        <v>0.074761757659903338</v>
+        <v>0.10337327479222225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.068761758578517629</v>
+        <v>-0.097373275110815172</v>
       </c>
       <c r="B26" s="0">
-        <v>0.068618415718599834</v>
+        <v>0.097195444925901597</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.062618416639915075</v>
+        <v>-0.091195445246213147</v>
       </c>
       <c r="B27" s="0">
-        <v>0.062140479261352688</v>
+        <v>0.090608416638529476</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.056140480197131915</v>
+        <v>-0.075244925565251641</v>
       </c>
       <c r="B28" s="0">
-        <v>0.055826889944561309</v>
+        <v>0.074523854558623981</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.043826890948173158</v>
+        <v>-0.062523854916980426</v>
       </c>
       <c r="B29" s="0">
-        <v>0.043694347539345202</v>
+        <v>0.062166170904159657</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.023694348625945771</v>
+        <v>-0.042166171299206745</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02364459045976286</v>
+        <v>0.0420196121259786</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027017802246620093</v>
+        <v>-0.027019612502760637</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000546506782186</v>
+        <v>0.027000844026050075</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005476090836396</v>
+        <v>-0.0060008444291952401</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999990459598251</v>
+        <v>0.0059999996611930229</v>
       </c>
     </row>
   </sheetData>
